--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44076.69513888889</v>
+        <v>44076.69512731482</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>21.1</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>43.91</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>36.06</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>233.04</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>18.49</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>56.82</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>18.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -443,14 +443,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>3.09</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>2.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>3.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>16.43</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>3.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>3.02</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.53</v>
+        <v>2.15</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.03</v>
+        <v>4.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.68</v>
+        <v>3.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63.32</v>
+        <v>6.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.9</v>
+        <v>2.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.2</v>
+        <v>25.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.29</v>
+        <v>4.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.45</v>
+        <v>3.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.44</v>
+        <v>3.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.55</v>
+        <v>1.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.94</v>
+        <v>5.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.8</v>
+        <v>4.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.89</v>
+        <v>3.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.09</v>
+        <v>5.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.87</v>
+        <v>21.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.04</v>
+        <v>4.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.39</v>
+        <v>2.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53</v>
+        <v>5.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.03</v>
+        <v>4.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.4</v>
+        <v>3.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.65000000000001</v>
+        <v>6.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>31.41</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>58.82</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.58</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44076.66041666667</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>50.2</v>
+        <v>5.02</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>40.98</v>
+        <v>4.1</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>70.7</v>
+        <v>7.07</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>27.92</v>
+        <v>2.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.35</v>
+        <v>2.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.7</v>
+        <v>2.57</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>267.37</v>
+        <v>26.74</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.48</v>
+        <v>5.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.95</v>
+        <v>3.4</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.36</v>
+        <v>3.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.06</v>
+        <v>2.11</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>64.3</v>
+        <v>6.43</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44076.66736111111</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.52</v>
+        <v>2.25</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>49.15</v>
+        <v>4.92</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>40.19</v>
+        <v>4.02</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>69.76000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>261.65</v>
+        <v>26.17</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>49.44</v>
+        <v>4.94</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>33.29</v>
+        <v>3.33</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>63.43</v>
+        <v>6.34</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.57</v>
+        <v>2.16</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>47.06</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.52</v>
+        <v>3.85</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>66.95999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>250.21</v>
+        <v>25.02</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.34</v>
+        <v>4.73</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.89</v>
+        <v>3.19</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.42</v>
+        <v>3.24</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>60.87</v>
+        <v>6.09</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>44.96</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>36.84</v>
+        <v>3.68</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.02</v>
+        <v>6.4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.01</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>238.76</v>
+        <v>23.88</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.23</v>
+        <v>4.52</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.49</v>
+        <v>3.05</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>30.99</v>
+        <v>3.1</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.19</v>
+        <v>5.82</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>43.92</v>
+        <v>4.39</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.01</v>
+        <v>3.6</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>62.44</v>
+        <v>6.24</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.43</v>
+        <v>2.44</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>233.04</v>
+        <v>23.3</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.18</v>
+        <v>4.42</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>29.79</v>
+        <v>2.98</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.25</v>
+        <v>3.02</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>56.75</v>
+        <v>5.67</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,7 +652,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44076.63263888889</v>
+        <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1.43</v>
@@ -756,938 +756,418 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44076.63958333333</v>
+        <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.7</v>
+        <v>3.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.77</v>
+        <v>2.39</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.33</v>
+        <v>4.14</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.62</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.39</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.02</v>
+        <v>15.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.73</v>
+        <v>3.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.14</v>
+        <v>2.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.14</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.89</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.79</v>
+        <v>3.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44076.64652777778</v>
+        <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.08</v>
+        <v>3.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.29</v>
+        <v>2.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.81</v>
+        <v>4.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.27</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.59</v>
+        <v>16.44</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.81</v>
+        <v>2.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.3</v>
+        <v>4.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44076.65347222222</v>
+        <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.11</v>
+        <v>1.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.74</v>
+        <v>2.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.46</v>
+        <v>4.7</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.45</v>
+        <v>17.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.63</v>
+        <v>3.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.14</v>
+        <v>2.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.88</v>
+        <v>4.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44076.66041666667</v>
+        <v>44076.61875</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.3</v>
+        <v>12.91</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.71</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5.02</v>
+        <v>28.25</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.1</v>
+        <v>22.83</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8</v>
+        <v>10.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.07</v>
+        <v>40.69</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.79</v>
+        <v>15.71</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.24</v>
+        <v>6.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.84</v>
+        <v>10.19</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.01</v>
+        <v>11.31</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.14</v>
+        <v>12.03</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.58</v>
+        <v>3.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.8</v>
+        <v>10.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.57</v>
+        <v>14.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.52</v>
+        <v>8.65</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>26.74</v>
+        <v>147.19</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.05</v>
+        <v>28.42</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.67</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.4</v>
+        <v>19.01</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.78</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.26</v>
+        <v>1.58</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.44</v>
+        <v>19.61</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.47</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.3</v>
+        <v>7.38</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.53</v>
+        <v>8.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.11</v>
+        <v>11.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.43</v>
+        <v>37.1</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44076.66736111111</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>26.17</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44076.67430555556</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44076.68125</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44076.68819444445</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44076.69512731482</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>37.77</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>65.08</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>46.28</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>31.59</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>59.13</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.09</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -458,22 +458,22 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.03</v>
+        <v>30.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.14</v>
+        <v>41.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>158.63</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.39</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.4</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.44</v>
+        <v>164.35</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.15</v>
+        <v>31.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.1</v>
+        <v>20.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.02</v>
+        <v>40.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.35</v>
+        <v>33.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.7</v>
+        <v>47.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.37</v>
+        <v>33.65</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>164.3</v>
@@ -715,43 +715,43 @@
         <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
@@ -759,22 +759,22 @@
         <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.85</v>
+        <v>13.847</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.675</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.31</v>
+        <v>30.313</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.86</v>
+        <v>23.857</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.78</v>
+        <v>10.778</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>41.42</v>
@@ -783,79 +783,79 @@
         <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.56</v>
+        <v>10.561</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.059</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.83</v>
+        <v>12.833</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.3</v>
+        <v>15.301</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.436</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.63</v>
+        <v>158.632</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.5</v>
+        <v>30.504</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.07</v>
+        <v>20.071</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.46</v>
+        <v>10.461</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.067</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.48</v>
+        <v>20.483</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.488</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>12.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.07</v>
+        <v>38.071</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.53</v>
+        <v>5.532</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
@@ -863,94 +863,94 @@
         <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.34</v>
+        <v>14.337</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.45</v>
+        <v>10.445</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.234</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.39</v>
+        <v>31.394</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>25.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.196</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44</v>
+        <v>43.997</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.61</v>
+        <v>7.615</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.16</v>
+        <v>11.163</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.54</v>
+        <v>12.539</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.34</v>
+        <v>13.344</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.623</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.93</v>
+        <v>15.933</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>9.710000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.983</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.35</v>
+        <v>164.352</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>31.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.97</v>
+        <v>20.965</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.97</v>
+        <v>10.973</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.39</v>
+        <v>21.394</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>8.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.708</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>13.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>40.17</v>
@@ -959,7 +959,7 @@
         <v>5.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.31</v>
+        <v>15.306</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.28</v>
+        <v>11.277</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.48</v>
+        <v>33.485</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.03</v>
+        <v>27.033</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.979</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>47.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.199</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.06</v>
+        <v>12.062</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.398</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.25</v>
+        <v>14.249</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.06</v>
+        <v>17.059</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.25</v>
+        <v>10.254</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.8</v>
+        <v>175.797</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>33.65</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.49</v>
+        <v>22.487</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.79</v>
+        <v>11.785</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="Z5" s="4" t="n">
+        <v>22.832</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>9.808999999999999</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>8.747999999999999</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>10.289</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>13.971</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>42.827</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>6.206</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>13.884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.61875</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>22.83</v>
       </c>
-      <c r="AA5" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>42.83</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+      <c r="G6" s="4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_14.xlsx
+++ b/DATA_goal/Junction_Flooding_14.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.306</v>
+        <v>15.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.277</v>
+        <v>11.28</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.485</v>
+        <v>33.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.033</v>
+        <v>27.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.979</v>
+        <v>11.98</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>47.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.615</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.199</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.062</v>
+        <v>12.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.398</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.249</v>
+        <v>14.25</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.865</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.059</v>
+        <v>17.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.254</v>
+        <v>10.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.797</v>
+        <v>175.8</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>33.65</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.487</v>
+        <v>22.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.785</v>
+        <v>11.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.832</v>
+        <v>22.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.747999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.289</v>
+        <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.971</v>
+        <v>13.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>42.827</v>
+        <v>42.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.206</v>
+        <v>6.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
